--- a/Databricks_SQL.xlsx
+++ b/Databricks_SQL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Confidential\myNotes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Confidential\data-cloudops-natvie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87B8AA8-16C9-47D9-B487-84FBD317E17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9339D0A9-AC55-4CF9-BF24-5330CB36F315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="2" xr2:uid="{CF404CF1-3C4E-4BE4-AB9E-1401FD2296E7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{CF404CF1-3C4E-4BE4-AB9E-1401FD2296E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Date-Time Functions" sheetId="1" r:id="rId1"/>
@@ -10036,26 +10036,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -10067,6 +10055,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -10093,6 +10084,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10105,8 +10099,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10469,7 +10469,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -10492,7 +10492,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="20"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="6" t="s">
         <v>42</v>
       </c>
@@ -10513,7 +10513,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="22" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -10536,7 +10536,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="20"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="7" t="s">
         <v>54</v>
       </c>
@@ -10557,7 +10557,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="7" t="s">
         <v>59</v>
       </c>
@@ -10578,7 +10578,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="7" t="s">
         <v>64</v>
       </c>
@@ -10599,7 +10599,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="20"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="7" t="s">
         <v>69</v>
       </c>
@@ -10620,7 +10620,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="7" t="s">
         <v>74</v>
       </c>
@@ -10650,7 +10650,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="22" t="s">
         <v>97</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -10673,7 +10673,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="7" t="s">
         <v>87</v>
       </c>
@@ -10694,7 +10694,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="7" t="s">
         <v>92</v>
       </c>
@@ -10715,7 +10715,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -10738,7 +10738,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="20"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
@@ -10759,7 +10759,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="20"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="7" t="s">
         <v>17</v>
       </c>
@@ -10780,7 +10780,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="20"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
@@ -10801,7 +10801,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="20"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
@@ -10822,7 +10822,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="20"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="7" t="s">
         <v>30</v>
       </c>
@@ -10843,7 +10843,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="22" t="s">
         <v>109</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -10866,7 +10866,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="20"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="7" t="s">
         <v>104</v>
       </c>
@@ -10887,7 +10887,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="22" t="s">
         <v>135</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -10910,7 +10910,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="20"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="7" t="s">
         <v>115</v>
       </c>
@@ -10931,7 +10931,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="20"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="7" t="s">
         <v>120</v>
       </c>
@@ -10952,7 +10952,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="20"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="7" t="s">
         <v>124</v>
       </c>
@@ -10973,7 +10973,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="20"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="7" t="s">
         <v>129</v>
       </c>
@@ -10994,7 +10994,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="22" t="s">
         <v>149</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -11017,7 +11017,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="20"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="7" t="s">
         <v>140</v>
       </c>
@@ -11038,7 +11038,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="20"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="7" t="s">
         <v>145</v>
       </c>
@@ -11079,16 +11079,16 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="39.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.53125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.9296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.46484375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="51.86328125" bestFit="1" customWidth="1"/>
@@ -11120,7 +11120,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>164</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -11143,7 +11143,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="20"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="7" t="s">
         <v>156</v>
       </c>
@@ -11164,7 +11164,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="7" t="s">
         <v>160</v>
       </c>
@@ -11185,13 +11185,13 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="22" t="s">
         <v>274</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="21" t="s">
         <v>166</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -11208,11 +11208,11 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="21" t="s">
         <v>172</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -11229,11 +11229,11 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="21" t="s">
         <v>177</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -11250,11 +11250,11 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="20"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="21" t="s">
         <v>183</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -11271,7 +11271,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="7" t="s">
         <v>186</v>
       </c>
@@ -11292,7 +11292,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="7" t="s">
         <v>190</v>
       </c>
@@ -11313,7 +11313,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="7" t="s">
         <v>195</v>
       </c>
@@ -11334,13 +11334,13 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="22" t="s">
         <v>273</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="21" t="s">
         <v>200</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -11357,11 +11357,11 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="20"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="21" t="s">
         <v>203</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -11378,8 +11378,8 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="20"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="21" t="s">
         <v>207</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -11399,7 +11399,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="22" t="s">
         <v>272</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -11422,7 +11422,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="20"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="7" t="s">
         <v>216</v>
       </c>
@@ -11443,7 +11443,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="20"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="7" t="s">
         <v>220</v>
       </c>
@@ -11464,7 +11464,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="20"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="7" t="s">
         <v>224</v>
       </c>
@@ -11485,7 +11485,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="20"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="7" t="s">
         <v>228</v>
       </c>
@@ -11506,7 +11506,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="20"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="7" t="s">
         <v>234</v>
       </c>
@@ -11527,7 +11527,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="22" t="s">
         <v>271</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -11550,7 +11550,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="7" t="s">
         <v>243</v>
       </c>
@@ -11571,7 +11571,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="20"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="7" t="s">
         <v>247</v>
       </c>
@@ -11592,7 +11592,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="20"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="7" t="s">
         <v>251</v>
       </c>
@@ -11613,7 +11613,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="20"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="7" t="s">
         <v>256</v>
       </c>
@@ -11634,7 +11634,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="20"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="7" t="s">
         <v>261</v>
       </c>
@@ -11696,7 +11696,7 @@
   </sheetPr>
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -11747,7 +11747,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>1302</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -11779,7 +11779,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="20"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="15" t="s">
         <v>1297</v>
       </c>
@@ -11809,7 +11809,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="15" t="s">
         <v>1292</v>
       </c>
@@ -11839,7 +11839,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="15" t="s">
         <v>1287</v>
       </c>
@@ -11869,7 +11869,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="15" t="s">
         <v>1283</v>
       </c>
@@ -11899,7 +11899,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>1278</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -11931,7 +11931,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="20"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="15" t="s">
         <v>1273</v>
       </c>
@@ -11961,7 +11961,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="15" t="s">
         <v>1269</v>
       </c>
@@ -11991,7 +11991,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="15" t="s">
         <v>1265</v>
       </c>
@@ -12021,7 +12021,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="22" t="s">
         <v>1259</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -12053,7 +12053,7 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="20"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="15" t="s">
         <v>1254</v>
       </c>
@@ -12083,7 +12083,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="41" t="s">
         <v>1249</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -12115,7 +12115,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="22"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="15" t="s">
         <v>1244</v>
       </c>
@@ -12145,7 +12145,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="23"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="15" t="s">
         <v>1238</v>
       </c>
@@ -12208,285 +12208,285 @@
     </row>
     <row r="22" spans="1:10" ht="14.65" thickBot="1"/>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="32" t="s">
         <v>1311</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="38"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="38"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="38"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:10" ht="14.65" thickBot="1"/>
     <row r="29" spans="1:10">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="23" t="s">
         <v>1312</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="30"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="31"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="30"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="31"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="30"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="31"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="30"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="31"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="30"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="31"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="30"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="31"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="30"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="31"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="30"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="31"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="30"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="31"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="28"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="30"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="31"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="28"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="30"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="31"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="30"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="31"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="28"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="30"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="31"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="30"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="31"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="30"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="31"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="28"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="30"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="31"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="28"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="30"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="31"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="28"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="30"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="31"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="30"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="31"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="28"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="30"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="31"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="30"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="31"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="28"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="30"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="31"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28"/>
     </row>
     <row r="52" spans="1:7" ht="14.65" thickBot="1">
-      <c r="A52" s="32"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="34"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12548,7 +12548,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>294</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -12571,7 +12571,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="20"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="13" t="s">
         <v>279</v>
       </c>
@@ -12592,7 +12592,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="13" t="s">
         <v>284</v>
       </c>
@@ -12613,7 +12613,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="13" t="s">
         <v>289</v>
       </c>
@@ -12634,7 +12634,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>337</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -12657,7 +12657,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="7" t="s">
         <v>300</v>
       </c>
@@ -12678,7 +12678,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="20"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="7" t="s">
         <v>304</v>
       </c>
@@ -12699,7 +12699,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="7" t="s">
         <v>309</v>
       </c>
@@ -12720,7 +12720,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="7" t="s">
         <v>314</v>
       </c>
@@ -12741,7 +12741,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="7" t="s">
         <v>319</v>
       </c>
@@ -12762,7 +12762,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="7" t="s">
         <v>324</v>
       </c>
@@ -12783,7 +12783,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="7" t="s">
         <v>328</v>
       </c>
@@ -12804,7 +12804,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="20"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="7" t="s">
         <v>332</v>
       </c>
@@ -12825,7 +12825,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="22" t="s">
         <v>349</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -12848,7 +12848,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="20"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="7" t="s">
         <v>344</v>
       </c>
@@ -12869,7 +12869,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="22" t="s">
         <v>361</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -12892,7 +12892,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="20"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="7" t="s">
         <v>354</v>
       </c>
@@ -12913,7 +12913,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="20"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="7" t="s">
         <v>358</v>
       </c>
@@ -12934,7 +12934,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="22" t="s">
         <v>384</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -12957,7 +12957,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="20"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="7" t="s">
         <v>367</v>
       </c>
@@ -12978,7 +12978,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="7" t="s">
         <v>371</v>
       </c>
@@ -12999,7 +12999,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="20"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="7" t="s">
         <v>376</v>
       </c>
@@ -13020,7 +13020,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="20"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="7" t="s">
         <v>380</v>
       </c>
@@ -13041,7 +13041,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="22" t="s">
         <v>406</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -13064,7 +13064,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="20"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="7" t="s">
         <v>389</v>
       </c>
@@ -13085,7 +13085,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="20"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="7" t="s">
         <v>394</v>
       </c>
@@ -13106,7 +13106,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="20"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="7" t="s">
         <v>398</v>
       </c>
@@ -13127,7 +13127,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="20"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="7" t="s">
         <v>402</v>
       </c>
@@ -13217,7 +13217,7 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="22" t="s">
         <v>442</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -13240,7 +13240,7 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="20"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="7" t="s">
         <v>429</v>
       </c>
@@ -13261,7 +13261,7 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="20"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="7" t="s">
         <v>433</v>
       </c>
@@ -13282,7 +13282,7 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="20"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="7" t="s">
         <v>437</v>
       </c>
@@ -13303,7 +13303,7 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="22" t="s">
         <v>461</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -13326,7 +13326,7 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="20"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="7" t="s">
         <v>448</v>
       </c>
@@ -13347,7 +13347,7 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="20"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="7" t="s">
         <v>452</v>
       </c>
@@ -13368,7 +13368,7 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="20"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="7" t="s">
         <v>457</v>
       </c>
@@ -13389,7 +13389,7 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="22" t="s">
         <v>470</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -13412,7 +13412,7 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="20"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="7" t="s">
         <v>466</v>
       </c>
@@ -13433,7 +13433,7 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="22" t="s">
         <v>480</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -13456,7 +13456,7 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="20"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="7" t="s">
         <v>476</v>
       </c>
@@ -13540,7 +13540,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>502</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -13563,7 +13563,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="20"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="7" t="s">
         <v>487</v>
       </c>
@@ -13584,7 +13584,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="7" t="s">
         <v>492</v>
       </c>
@@ -13605,7 +13605,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="7" t="s">
         <v>497</v>
       </c>
@@ -13626,7 +13626,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>509</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -13649,7 +13649,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="7" t="s">
         <v>358</v>
       </c>
@@ -13670,7 +13670,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="22" t="s">
         <v>521</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -13693,7 +13693,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="7" t="s">
         <v>371</v>
       </c>
@@ -13714,7 +13714,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="7" t="s">
         <v>380</v>
       </c>
@@ -13735,7 +13735,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="22" t="s">
         <v>530</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -13758,7 +13758,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="20"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="7" t="s">
         <v>526</v>
       </c>
@@ -13779,7 +13779,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="22" t="s">
         <v>549</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -13802,7 +13802,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="20"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="7" t="s">
         <v>536</v>
       </c>
@@ -13823,7 +13823,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="20"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="7" t="s">
         <v>540</v>
       </c>
@@ -13844,7 +13844,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="20"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="7" t="s">
         <v>544</v>
       </c>
@@ -13888,7 +13888,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="22" t="s">
         <v>562</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -13911,7 +13911,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="20"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="7" t="s">
         <v>448</v>
       </c>
@@ -14014,7 +14014,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>648</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -14037,7 +14037,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.5">
-      <c r="A3" s="20"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="6" t="s">
         <v>574</v>
       </c>
@@ -14058,7 +14058,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
         <v>579</v>
       </c>
@@ -14079,7 +14079,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="22" t="s">
         <v>649</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -14102,7 +14102,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="7" t="s">
         <v>592</v>
       </c>
@@ -14123,7 +14123,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="7" t="s">
         <v>597</v>
       </c>
@@ -14144,7 +14144,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="20"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="7" t="s">
         <v>602</v>
       </c>
@@ -14165,7 +14165,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="7" t="s">
         <v>606</v>
       </c>
@@ -14186,7 +14186,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="7" t="s">
         <v>612</v>
       </c>
@@ -14207,7 +14207,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="7" t="s">
         <v>618</v>
       </c>
@@ -14228,7 +14228,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="22" t="s">
         <v>650</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -14251,7 +14251,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="20"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="7" t="s">
         <v>627</v>
       </c>
@@ -14272,7 +14272,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="7" t="s">
         <v>631</v>
       </c>
@@ -14293,7 +14293,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="20"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="7" t="s">
         <v>635</v>
       </c>
@@ -14314,7 +14314,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="20"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="7" t="s">
         <v>639</v>
       </c>
@@ -14335,7 +14335,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="20"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="7" t="s">
         <v>644</v>
       </c>
@@ -14356,7 +14356,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="22" t="s">
         <v>746</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -14379,7 +14379,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="20"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="9" t="s">
         <v>655</v>
       </c>
@@ -14400,7 +14400,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="20"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="9" t="s">
         <v>659</v>
       </c>
@@ -14421,7 +14421,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="20"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="9" t="s">
         <v>663</v>
       </c>
@@ -14442,7 +14442,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="22" t="s">
         <v>745</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -14465,7 +14465,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="20"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="9" t="s">
         <v>672</v>
       </c>
@@ -14486,7 +14486,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="22" t="s">
         <v>744</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -14509,7 +14509,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="20"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="9" t="s">
         <v>682</v>
       </c>
@@ -14553,7 +14553,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="25.5">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="22" t="s">
         <v>742</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -14576,7 +14576,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="25.5">
-      <c r="A35" s="20"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="11" t="s">
         <v>698</v>
       </c>
@@ -14597,7 +14597,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="25.5">
-      <c r="A36" s="20"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="11" t="s">
         <v>703</v>
       </c>
@@ -14618,7 +14618,7 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="20"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="11" t="s">
         <v>707</v>
       </c>
@@ -14639,7 +14639,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="28.5">
-      <c r="A38" s="20"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="11" t="s">
         <v>712</v>
       </c>
@@ -14683,7 +14683,7 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="22" t="s">
         <v>740</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -14706,7 +14706,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="28.5">
-      <c r="A43" s="20"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="9" t="s">
         <v>727</v>
       </c>
@@ -14811,7 +14811,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>850</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -14834,7 +14834,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="20"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="7" t="s">
         <v>752</v>
       </c>
@@ -14855,7 +14855,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="7" t="s">
         <v>757</v>
       </c>
@@ -14876,7 +14876,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="7" t="s">
         <v>762</v>
       </c>
@@ -14897,7 +14897,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="20"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="7" t="s">
         <v>767</v>
       </c>
@@ -14918,7 +14918,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="7" t="s">
         <v>772</v>
       </c>
@@ -14939,7 +14939,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="7" t="s">
         <v>777</v>
       </c>
@@ -14960,7 +14960,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="20"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="7" t="s">
         <v>782</v>
       </c>
@@ -14981,7 +14981,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="7" t="s">
         <v>787</v>
       </c>
@@ -15002,7 +15002,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="7" t="s">
         <v>792</v>
       </c>
@@ -15023,7 +15023,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="7" t="s">
         <v>797</v>
       </c>
@@ -15044,7 +15044,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="22" t="s">
         <v>849</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -15067,7 +15067,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="20"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="7" t="s">
         <v>807</v>
       </c>
@@ -15088,7 +15088,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="7" t="s">
         <v>812</v>
       </c>
@@ -15109,7 +15109,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="20"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="7" t="s">
         <v>818</v>
       </c>
@@ -15130,7 +15130,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="20"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="7" t="s">
         <v>822</v>
       </c>
@@ -15151,7 +15151,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="20"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="7" t="s">
         <v>826</v>
       </c>
@@ -15172,7 +15172,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="20"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="7" t="s">
         <v>830</v>
       </c>
@@ -15193,7 +15193,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="20"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="7" t="s">
         <v>835</v>
       </c>
@@ -15214,7 +15214,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="20"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="7" t="s">
         <v>839</v>
       </c>
@@ -15235,7 +15235,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="20"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="7" t="s">
         <v>844</v>
       </c>
@@ -15256,7 +15256,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="22" t="s">
         <v>882</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -15279,7 +15279,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="7" t="s">
         <v>856</v>
       </c>
@@ -15300,7 +15300,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="20"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="7" t="s">
         <v>860</v>
       </c>
@@ -15321,7 +15321,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="20"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="7" t="s">
         <v>865</v>
       </c>
@@ -15342,7 +15342,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="20"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="7" t="s">
         <v>870</v>
       </c>
@@ -15363,7 +15363,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="20"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="7" t="s">
         <v>874</v>
       </c>
@@ -15384,7 +15384,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="20"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="7" t="s">
         <v>877</v>
       </c>
@@ -15405,7 +15405,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="22" t="s">
         <v>917</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -15428,7 +15428,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="20"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="7" t="s">
         <v>887</v>
       </c>
@@ -15449,7 +15449,7 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="20"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="7" t="s">
         <v>891</v>
       </c>
@@ -15470,7 +15470,7 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="20"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="7" t="s">
         <v>895</v>
       </c>
@@ -15491,7 +15491,7 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="20"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="7" t="s">
         <v>899</v>
       </c>
@@ -15512,7 +15512,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="20"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="7" t="s">
         <v>324</v>
       </c>
@@ -15533,7 +15533,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="20"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="7" t="s">
         <v>906</v>
       </c>
@@ -15554,7 +15554,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="20"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="7" t="s">
         <v>911</v>
       </c>
@@ -15575,7 +15575,7 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="20"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="7" t="s">
         <v>916</v>
       </c>
@@ -15596,7 +15596,7 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="20"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="7" t="s">
         <v>922</v>
       </c>
@@ -15617,7 +15617,7 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="22" t="s">
         <v>1000</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -15640,7 +15640,7 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="20"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="7" t="s">
         <v>932</v>
       </c>
@@ -15661,7 +15661,7 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="20"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="7" t="s">
         <v>937</v>
       </c>
@@ -15682,7 +15682,7 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="20"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="7" t="s">
         <v>942</v>
       </c>
@@ -15703,7 +15703,7 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="20"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="7" t="s">
         <v>947</v>
       </c>
@@ -15724,7 +15724,7 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="20"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="7" t="s">
         <v>951</v>
       </c>
@@ -15745,7 +15745,7 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="20"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="7" t="s">
         <v>956</v>
       </c>
@@ -15766,7 +15766,7 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="20"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="7" t="s">
         <v>961</v>
       </c>
@@ -15787,7 +15787,7 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="20"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="7" t="s">
         <v>966</v>
       </c>
@@ -15808,7 +15808,7 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="20"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="7" t="s">
         <v>971</v>
       </c>
@@ -15829,7 +15829,7 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="20"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="7" t="s">
         <v>975</v>
       </c>
@@ -15850,7 +15850,7 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="20"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="7" t="s">
         <v>979</v>
       </c>
@@ -15871,7 +15871,7 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="20"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="7" t="s">
         <v>984</v>
       </c>
@@ -15892,7 +15892,7 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="20"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="7" t="s">
         <v>989</v>
       </c>
@@ -15913,7 +15913,7 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="20"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="7" t="s">
         <v>995</v>
       </c>
@@ -15934,7 +15934,7 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="22" t="s">
         <v>1036</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -15957,7 +15957,7 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="20"/>
+      <c r="A61" s="22"/>
       <c r="B61" s="7" t="s">
         <v>733</v>
       </c>
@@ -15978,7 +15978,7 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="20"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="7" t="s">
         <v>1010</v>
       </c>
@@ -15999,7 +15999,7 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="20"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="7" t="s">
         <v>1015</v>
       </c>
@@ -16020,7 +16020,7 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="20"/>
+      <c r="A64" s="22"/>
       <c r="B64" s="7" t="s">
         <v>1019</v>
       </c>
@@ -16041,7 +16041,7 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="20"/>
+      <c r="A65" s="22"/>
       <c r="B65" s="7" t="s">
         <v>1023</v>
       </c>
@@ -16062,7 +16062,7 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="20"/>
+      <c r="A66" s="22"/>
       <c r="B66" s="7" t="s">
         <v>1028</v>
       </c>
@@ -16083,7 +16083,7 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="20"/>
+      <c r="A67" s="22"/>
       <c r="B67" s="7" t="s">
         <v>792</v>
       </c>
@@ -16104,7 +16104,7 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="22" t="s">
         <v>1067</v>
       </c>
       <c r="B69" s="9" t="s">
@@ -16127,7 +16127,7 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="20"/>
+      <c r="A70" s="22"/>
       <c r="B70" s="9" t="s">
         <v>1041</v>
       </c>
@@ -16148,7 +16148,7 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="20"/>
+      <c r="A71" s="22"/>
       <c r="B71" s="9" t="s">
         <v>1045</v>
       </c>
@@ -16169,7 +16169,7 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="20"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="9" t="s">
         <v>1049</v>
       </c>
@@ -16190,7 +16190,7 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="20"/>
+      <c r="A73" s="22"/>
       <c r="B73" s="9" t="s">
         <v>1054</v>
       </c>
@@ -16211,7 +16211,7 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="20"/>
+      <c r="A74" s="22"/>
       <c r="B74" s="9" t="s">
         <v>667</v>
       </c>
@@ -16232,7 +16232,7 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="20"/>
+      <c r="A75" s="22"/>
       <c r="B75" s="9" t="s">
         <v>1063</v>
       </c>
@@ -16253,7 +16253,7 @@
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="22" t="s">
         <v>1083</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -16276,7 +16276,7 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="20"/>
+      <c r="A78" s="22"/>
       <c r="B78" s="9" t="s">
         <v>1073</v>
       </c>
@@ -16297,7 +16297,7 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="20"/>
+      <c r="A79" s="22"/>
       <c r="B79" s="9" t="s">
         <v>1078</v>
       </c>
@@ -16341,7 +16341,7 @@
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="20" t="s">
+      <c r="A83" s="22" t="s">
         <v>1098</v>
       </c>
       <c r="B83" s="7" t="s">
@@ -16364,7 +16364,7 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="20"/>
+      <c r="A84" s="22"/>
       <c r="B84" s="7" t="s">
         <v>1092</v>
       </c>
@@ -16385,7 +16385,7 @@
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="20"/>
+      <c r="A85" s="22"/>
       <c r="B85" s="7" t="s">
         <v>1054</v>
       </c>
@@ -16468,7 +16468,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>1126</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -16491,7 +16491,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="20"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="16" t="s">
         <v>1105</v>
       </c>
@@ -16512,7 +16512,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="16" t="s">
         <v>1110</v>
       </c>
@@ -16533,7 +16533,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="16" t="s">
         <v>1115</v>
       </c>
@@ -16554,7 +16554,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="20"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="16" t="s">
         <v>1120</v>
       </c>

--- a/Databricks_SQL.xlsx
+++ b/Databricks_SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Confidential\data-cloudops-natvie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9339D0A9-AC55-4CF9-BF24-5330CB36F315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31F897B-2D20-4FBC-94F4-A644CA965609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{CF404CF1-3C4E-4BE4-AB9E-1401FD2296E7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="3" xr2:uid="{CF404CF1-3C4E-4BE4-AB9E-1401FD2296E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Date-Time Functions" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="1314">
   <si>
     <t>Function</t>
   </si>
@@ -1702,39 +1702,6 @@
     <t>Repeats an element into an array.</t>
   </si>
   <si>
-    <r>
-      <t>element</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: ANY, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>count</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: INT</t>
-    </r>
-  </si>
-  <si>
     <t>SELECT array_repeat('x', 3);</t>
   </si>
   <si>
@@ -1747,21 +1714,6 @@
     <t>Combines arrays into array of structs.</t>
   </si>
   <si>
-    <r>
-      <t>array1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, ...: ARRAY</t>
-    </r>
-  </si>
-  <si>
     <t>SELECT arrays_zip(array(1, 2), array('a', 'b'));</t>
   </si>
   <si>
@@ -1774,57 +1726,6 @@
     <t>Generates a sequence array.</t>
   </si>
   <si>
-    <r>
-      <t>start</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>stop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>step</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: NUMERIC/DATE</t>
-    </r>
-  </si>
-  <si>
     <t>SELECT sequence(1, 5);</t>
   </si>
   <si>
@@ -1840,39 +1741,6 @@
     <t>Appends element to array.</t>
   </si>
   <si>
-    <r>
-      <t>array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: ARRAY, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: ANY</t>
-    </r>
-  </si>
-  <si>
     <t>SELECT array_append(array(1, 2), 3);</t>
   </si>
   <si>
@@ -1897,57 +1765,6 @@
     <t>Inserts element at position.</t>
   </si>
   <si>
-    <r>
-      <t>array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: ARRAY, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>index</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: INT, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: ANY</t>
-    </r>
-  </si>
-  <si>
     <t>SELECT array_insert(array(1, 2), 2, 99);</t>
   </si>
   <si>
@@ -1960,39 +1777,6 @@
     <t>Removes all occurrences of element.</t>
   </si>
   <si>
-    <r>
-      <t>array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: ARRAY, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>element</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: ANY</t>
-    </r>
-  </si>
-  <si>
     <t>SELECT array_remove(array(1, 2, 1), 1);</t>
   </si>
   <si>
@@ -2005,21 +1789,6 @@
     <t>Removes nulls from array.</t>
   </si>
   <si>
-    <r>
-      <t>array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: ARRAY</t>
-    </r>
-  </si>
-  <si>
     <t>SELECT array_compact(array(1, NULL, 2));</t>
   </si>
   <si>
@@ -2032,39 +1801,6 @@
     <t>Sorts using comparator function.</t>
   </si>
   <si>
-    <r>
-      <t>array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: ARRAY, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>func</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: (a, b) -&gt; INT</t>
-    </r>
-  </si>
-  <si>
     <t>SELECT array_sort(array(3, 1, 2), (x, y) -&gt; y - x);</t>
   </si>
   <si>
@@ -2101,57 +1837,6 @@
     <t>Returns sub-array.</t>
   </si>
   <si>
-    <r>
-      <t>array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: ARRAY, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>start</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: INT, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: INT</t>
-    </r>
-  </si>
-  <si>
     <t>SELECT slice(array(1, 2, 3, 4), 2, 2);</t>
   </si>
   <si>
@@ -2182,29 +1867,6 @@
     <t>reduce(array, start, merge [, finish])</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Alias for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>aggregate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>Same</t>
   </si>
   <si>
@@ -2298,29 +1960,6 @@
     <t>get(array, index)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Same as </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>element_at</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>SELECT get(array(10, 20), 1);</t>
   </si>
   <si>
@@ -2357,47 +1996,6 @@
     <t>array_except(a1, a2)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Elements in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>a1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> not in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>a2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>ARRAY, ARRAY</t>
   </si>
   <si>
@@ -2555,9 +2153,6 @@
   </si>
   <si>
     <t>explode(array)</t>
-  </si>
-  <si>
-    <t>Returns row per element.</t>
   </si>
   <si>
     <t>TABLE</t>
@@ -9715,12 +9310,210 @@
 Moving averages: AVG(salary) OVER (ORDER BY employee_id ROWS BETWEEN 2 PRECEDING AND CURRENT ROW).</t>
     </r>
   </si>
+  <si>
+    <t>Returns a new row for every element in the array.</t>
+  </si>
+  <si>
+    <r>
+      <t>expr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ANY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>array1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ...: ARRAY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ARRAY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>element</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ANY, count: INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, stop, step: NUMERIC/DATE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ARRAY, elem: ANY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ARRAY, index: INT, elem: ANY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ARRAY, element: ANY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ARRAY, func: (a, b) -&gt; INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ARRAY, start: INT, length: INT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alias for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aggregate.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Same as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>element_at.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elements in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a1 not in a2.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9779,8 +9572,15 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9790,6 +9590,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9979,7 +9785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -10016,12 +9822,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10107,6 +9907,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10469,7 +10283,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -10492,7 +10306,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="22"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="6" t="s">
         <v>42</v>
       </c>
@@ -10513,7 +10327,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -10536,7 +10350,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="22"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="7" t="s">
         <v>54</v>
       </c>
@@ -10557,7 +10371,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="22"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="7" t="s">
         <v>59</v>
       </c>
@@ -10578,7 +10392,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="22"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="7" t="s">
         <v>64</v>
       </c>
@@ -10599,7 +10413,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="22"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="7" t="s">
         <v>69</v>
       </c>
@@ -10620,7 +10434,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="22"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="7" t="s">
         <v>74</v>
       </c>
@@ -10650,7 +10464,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>97</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -10673,7 +10487,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="22"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="7" t="s">
         <v>87</v>
       </c>
@@ -10694,7 +10508,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="22"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="7" t="s">
         <v>92</v>
       </c>
@@ -10715,7 +10529,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="20" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -10738,7 +10552,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="22"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
@@ -10759,7 +10573,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="22"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="7" t="s">
         <v>17</v>
       </c>
@@ -10780,7 +10594,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="22"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
@@ -10801,7 +10615,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="22"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
@@ -10822,7 +10636,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="22"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="7" t="s">
         <v>30</v>
       </c>
@@ -10843,7 +10657,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="20" t="s">
         <v>109</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -10866,7 +10680,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="22"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="7" t="s">
         <v>104</v>
       </c>
@@ -10887,7 +10701,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="20" t="s">
         <v>135</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -10910,7 +10724,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="22"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="7" t="s">
         <v>115</v>
       </c>
@@ -10931,7 +10745,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="22"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="7" t="s">
         <v>120</v>
       </c>
@@ -10952,7 +10766,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="22"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="7" t="s">
         <v>124</v>
       </c>
@@ -10973,7 +10787,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="22"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="7" t="s">
         <v>129</v>
       </c>
@@ -10994,7 +10808,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="20" t="s">
         <v>149</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -11017,7 +10831,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="22"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="7" t="s">
         <v>140</v>
       </c>
@@ -11038,7 +10852,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="22"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="7" t="s">
         <v>145</v>
       </c>
@@ -11079,7 +10893,7 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
@@ -11120,7 +10934,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>164</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -11143,7 +10957,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="22"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="7" t="s">
         <v>156</v>
       </c>
@@ -11164,7 +10978,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="22"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="7" t="s">
         <v>160</v>
       </c>
@@ -11185,13 +10999,13 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>274</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>166</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -11208,11 +11022,11 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="22"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>172</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -11229,11 +11043,11 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="22"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>177</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -11250,11 +11064,11 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="22"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>183</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -11271,7 +11085,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="22"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="7" t="s">
         <v>186</v>
       </c>
@@ -11292,7 +11106,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="22"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="7" t="s">
         <v>190</v>
       </c>
@@ -11313,7 +11127,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="22"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="7" t="s">
         <v>195</v>
       </c>
@@ -11334,13 +11148,13 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>273</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>200</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -11357,11 +11171,11 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="22"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="19" t="s">
         <v>203</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -11378,8 +11192,8 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="22"/>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="19" t="s">
         <v>207</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -11399,7 +11213,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="20" t="s">
         <v>272</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -11422,7 +11236,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="22"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="7" t="s">
         <v>216</v>
       </c>
@@ -11443,7 +11257,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="22"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="7" t="s">
         <v>220</v>
       </c>
@@ -11464,7 +11278,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="22"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="7" t="s">
         <v>224</v>
       </c>
@@ -11485,7 +11299,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="22"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="7" t="s">
         <v>228</v>
       </c>
@@ -11506,7 +11320,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="22"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="7" t="s">
         <v>234</v>
       </c>
@@ -11527,7 +11341,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="20" t="s">
         <v>271</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -11550,7 +11364,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="22"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="7" t="s">
         <v>243</v>
       </c>
@@ -11571,7 +11385,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="22"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="7" t="s">
         <v>247</v>
       </c>
@@ -11592,7 +11406,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="22"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="7" t="s">
         <v>251</v>
       </c>
@@ -11613,7 +11427,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="22"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="7" t="s">
         <v>256</v>
       </c>
@@ -11634,7 +11448,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="22"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="7" t="s">
         <v>261</v>
       </c>
@@ -11719,774 +11533,774 @@
         <v>47</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1308</v>
+        <v>1295</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>1306</v>
+        <v>1293</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>1305</v>
+        <v>1292</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>1304</v>
+        <v>1291</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>1303</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="22" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="20" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="20"/>
+      <c r="B3" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="20"/>
+      <c r="B4" s="13" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="20"/>
+      <c r="B5" s="13" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>1272</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="20"/>
+      <c r="B6" s="13" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="20" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>1262</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="20"/>
+      <c r="B9" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>1258</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="20"/>
+      <c r="B10" s="13" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="20"/>
+      <c r="B11" s="13" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="20" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J13" s="13" t="s">
         <v>1242</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>1295</v>
-      </c>
-      <c r="F2" s="15" t="s">
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="20"/>
+      <c r="B14" s="13" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="39" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>1233</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="40"/>
+      <c r="B17" s="13" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>1227</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>1299</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="22"/>
-      <c r="B3" s="15" t="s">
+      <c r="J17" s="13" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="41"/>
+      <c r="B18" s="13" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="13" t="s">
         <v>1297</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>1295</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>1294</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="22"/>
-      <c r="B4" s="15" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>1291</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>1290</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>1289</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="22"/>
-      <c r="B5" s="15" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>1281</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>1285</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="22"/>
-      <c r="B6" s="15" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>1281</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>1280</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="22" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>1275</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="22"/>
-      <c r="B9" s="15" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>1271</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="22"/>
-      <c r="B10" s="15" t="s">
-        <v>1269</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>1267</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="22"/>
-      <c r="B11" s="15" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>1261</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="22" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>1256</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="22"/>
-      <c r="B14" s="15" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>1251</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="41" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>1246</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="42"/>
-      <c r="B17" s="15" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>1240</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="43"/>
-      <c r="B18" s="15" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>1235</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>1234</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="15" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>1226</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>1225</v>
+      <c r="B20" s="13" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.65" thickBot="1"/>
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A23" s="32" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="A23" s="30" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" ht="14.65" thickBot="1"/>
     <row r="29" spans="1:10">
-      <c r="A29" s="23" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
+      <c r="A29" s="21" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="26"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="26"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="26"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="26"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="28"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="26"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="28"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="26"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="26"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="28"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="28"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="26"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="26"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="28"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="26"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="28"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="26"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="28"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="26"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="28"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="26"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="28"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="26"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="28"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="26"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="28"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="26"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="26"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="28"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" spans="1:7" ht="14.65" thickBot="1">
-      <c r="A52" s="29"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="31"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12508,20 +12322,20 @@
   </sheetPr>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="25.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -12548,932 +12362,1040 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="E7" s="45" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F7" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="22"/>
-      <c r="B3" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="G7" s="45" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="42"/>
+      <c r="B8" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F8" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="22"/>
-      <c r="B4" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="G8" s="45" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="42"/>
+      <c r="B9" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F9" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="22"/>
-      <c r="B5" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="G9" s="45" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="42"/>
+      <c r="B10" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F10" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="22" t="s">
+      <c r="G10" s="45" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="42"/>
+      <c r="B11" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="42"/>
+      <c r="B12" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="42"/>
+      <c r="B13" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="42"/>
+      <c r="B14" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="42"/>
+      <c r="B15" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="42"/>
+      <c r="B18" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E18" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="F18" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="E20" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="22"/>
-      <c r="B8" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="F20" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="42"/>
+      <c r="B21" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="22"/>
-      <c r="B9" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="F21" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="42"/>
+      <c r="B22" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="E22" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="22"/>
-      <c r="B10" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="F22" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="42"/>
+      <c r="B25" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="45" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="42"/>
+      <c r="B26" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="42"/>
+      <c r="B27" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="G27" s="45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="42"/>
+      <c r="B28" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="G28" s="45" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="E30" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="22"/>
-      <c r="B11" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="F30" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="22"/>
-      <c r="B12" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="G30" s="45" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="42"/>
+      <c r="B31" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="F31" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="22"/>
-      <c r="B13" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="G31" s="45" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="42"/>
+      <c r="B32" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="F32" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="22"/>
-      <c r="B14" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="G32" s="45" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="42"/>
+      <c r="B33" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="F33" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="22"/>
-      <c r="B15" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="G33" s="45" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="42"/>
+      <c r="B34" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="E34" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="G34" s="45" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>395</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>396</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>397</v>
+      </c>
+      <c r="E36" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="22"/>
-      <c r="B18" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="F36" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="22"/>
-      <c r="B21" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="G36" s="45" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>400</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>401</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="E38" s="45" t="s">
+        <v>403</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="45" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="E40" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="F40" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="22"/>
-      <c r="B22" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="G40" s="45" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="42" t="s">
+        <v>430</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>413</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>414</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="F42" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="G42" s="45" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="42"/>
+      <c r="B43" s="45" t="s">
+        <v>417</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>419</v>
+      </c>
+      <c r="E43" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="F43" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="G43" s="45" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="42"/>
+      <c r="B44" s="45" t="s">
+        <v>421</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>422</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="F44" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="22"/>
-      <c r="B25" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="22"/>
-      <c r="B26" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="22"/>
-      <c r="B27" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="22"/>
-      <c r="B28" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="G44" s="45" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="42"/>
+      <c r="B45" s="45" t="s">
+        <v>425</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>426</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>427</v>
+      </c>
+      <c r="E45" s="45" t="s">
+        <v>428</v>
+      </c>
+      <c r="F45" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="G45" s="45" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="42" t="s">
+        <v>448</v>
+      </c>
+      <c r="B47" s="47" t="s">
+        <v>431</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E47" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="22"/>
-      <c r="B31" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="F31" s="8" t="s">
+      <c r="F47" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="G47" s="45" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="42"/>
+      <c r="B48" s="47" t="s">
+        <v>435</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>436</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="E48" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="22"/>
-      <c r="B32" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="F32" s="8" t="s">
+      <c r="F48" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="G48" s="45" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="42"/>
+      <c r="B49" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>441</v>
+      </c>
+      <c r="E49" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="22"/>
-      <c r="B33" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="F49" s="45" t="s">
+        <v>442</v>
+      </c>
+      <c r="G49" s="45" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="42"/>
+      <c r="B50" s="45" t="s">
+        <v>444</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="E50" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="22"/>
-      <c r="B34" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="E36" s="8" t="s">
+      <c r="F50" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="G50" s="45" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="44"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>450</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="E52" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F52" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="G52" s="45" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="42"/>
+      <c r="B53" s="45" t="s">
+        <v>453</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>454</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>455</v>
+      </c>
+      <c r="E53" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="F40" s="8" t="s">
+      <c r="F53" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="G53" s="45" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>458</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>459</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>460</v>
+      </c>
+      <c r="E55" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="F42" s="8" t="s">
+      <c r="F55" s="45" t="s">
+        <v>461</v>
+      </c>
+      <c r="G55" s="45" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="42"/>
+      <c r="B56" s="45" t="s">
+        <v>463</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="E56" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="22"/>
-      <c r="B43" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="22"/>
-      <c r="B44" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="22"/>
-      <c r="B45" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="22" t="s">
+      <c r="F56" s="45" t="s">
         <v>461</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="22"/>
-      <c r="B48" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="22"/>
-      <c r="B49" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="22"/>
-      <c r="B50" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="22"/>
-      <c r="B53" s="7" t="s">
+      <c r="G56" s="45" t="s">
         <v>466</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="22"/>
-      <c r="B56" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -13540,418 +13462,418 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22" t="s">
-        <v>502</v>
+      <c r="A2" s="20" t="s">
+        <v>489</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="20"/>
+      <c r="B3" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="20"/>
+      <c r="B4" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F4" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="E2" s="8" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="20"/>
+      <c r="B5" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="22"/>
-      <c r="B3" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="F5" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="E3" s="7" t="s">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="22"/>
-      <c r="B4" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="22"/>
-      <c r="B5" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>504</v>
-      </c>
       <c r="E7" s="8" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="22"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="20" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="22" t="s">
-        <v>521</v>
-      </c>
       <c r="B10" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>154</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="22"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="20"/>
+      <c r="B12" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="20" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="22"/>
-      <c r="B12" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="22" t="s">
-        <v>530</v>
-      </c>
       <c r="B14" s="7" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="22"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="7" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>241</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="20"/>
+      <c r="B18" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="20"/>
+      <c r="B19" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="22" t="s">
-        <v>549</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="E19" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="20"/>
+      <c r="B20" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="F20" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>535</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="22"/>
-      <c r="B18" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="22"/>
-      <c r="B19" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="22"/>
-      <c r="B20" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="22" t="s">
-        <v>562</v>
+      <c r="A24" s="20" t="s">
+        <v>549</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="22"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="7" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="5" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -14014,231 +13936,231 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22" t="s">
-        <v>648</v>
+      <c r="A2" s="20" t="s">
+        <v>635</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="25.5">
+      <c r="A3" s="20"/>
+      <c r="B3" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="20"/>
+      <c r="B4" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="G2" s="6" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="25.5">
-      <c r="A3" s="22"/>
-      <c r="B3" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D6" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="20"/>
+      <c r="B7" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="20"/>
+      <c r="B8" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="22"/>
-      <c r="B4" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="22" t="s">
-        <v>649</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="22"/>
-      <c r="B7" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="22"/>
-      <c r="B8" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>600</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="22"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="7" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>154</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="20"/>
+      <c r="B10" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="20"/>
+      <c r="B11" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="20"/>
+      <c r="B12" s="7" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="22"/>
-      <c r="B10" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="22"/>
-      <c r="B11" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="22"/>
-      <c r="B12" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>154</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="22" t="s">
-        <v>650</v>
+      <c r="A14" s="20" t="s">
+        <v>637</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>9</v>
@@ -14247,19 +14169,19 @@
         <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="22"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="7" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>9</v>
@@ -14268,19 +14190,19 @@
         <v>85</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="22"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="7" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>9</v>
@@ -14289,19 +14211,19 @@
         <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="22"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="7" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>9</v>
@@ -14310,63 +14232,63 @@
         <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="22"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="7" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>154</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="22"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="7" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>154</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="22" t="s">
-        <v>746</v>
+      <c r="A21" s="20" t="s">
+        <v>733</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>9</v>
@@ -14375,19 +14297,19 @@
         <v>85</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="22"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="9" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>9</v>
@@ -14396,19 +14318,19 @@
         <v>40</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="22"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="9" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>9</v>
@@ -14417,19 +14339,19 @@
         <v>241</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="22"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="9" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>9</v>
@@ -14438,42 +14360,42 @@
         <v>85</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="22" t="s">
-        <v>745</v>
+      <c r="A26" s="20" t="s">
+        <v>732</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="22"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="9" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>9</v>
@@ -14482,271 +14404,271 @@
         <v>85</v>
       </c>
       <c r="G27" s="9" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="20" t="s">
+        <v>731</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="20"/>
+      <c r="B30" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="22" t="s">
-        <v>744</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="F32" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="G32" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="E29" s="10" t="s">
+    </row>
+    <row r="34" spans="1:7" ht="25.5">
+      <c r="A34" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="C34" s="11" t="s">
         <v>680</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="D34" s="12" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="22"/>
-      <c r="B30" s="9" t="s">
+      <c r="E34" s="12" t="s">
         <v>682</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="F34" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="G34" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="G30" s="9" t="s">
+    </row>
+    <row r="35" spans="1:7" ht="25.5">
+      <c r="A35" s="20"/>
+      <c r="B35" s="11" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="15" t="s">
-        <v>743</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="C35" s="11" t="s">
         <v>686</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="D35" s="12" t="s">
         <v>687</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="E35" s="12" t="s">
         <v>688</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="25.5">
-      <c r="A34" s="22" t="s">
-        <v>742</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>693</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>695</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="25.5">
-      <c r="A35" s="22"/>
-      <c r="B35" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>700</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>701</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>40</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="25.5">
-      <c r="A36" s="22"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="11" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>40</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="22"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="11" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="28.5">
-      <c r="A38" s="22"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="11" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="5" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>85</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="22" t="s">
-        <v>740</v>
+      <c r="A42" s="20" t="s">
+        <v>727</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="28.5">
-      <c r="A43" s="22"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="9" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="28.5">
       <c r="A45" s="12" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -14811,1598 +14733,1598 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22" t="s">
-        <v>850</v>
+      <c r="A2" s="20" t="s">
+        <v>837</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="22"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="7" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="22"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="7" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="22"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="7" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="22"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="7" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="22"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="7" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="22"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="7" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="20"/>
+      <c r="B9" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="20"/>
+      <c r="B10" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="20"/>
+      <c r="B11" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="22"/>
-      <c r="B9" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>782</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>783</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>784</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>760</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>785</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="22"/>
-      <c r="B10" s="7" t="s">
-        <v>787</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>788</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>790</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>785</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="22"/>
-      <c r="B11" s="7" t="s">
-        <v>792</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>793</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>795</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="22"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="7" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="22" t="s">
-        <v>849</v>
+      <c r="A14" s="20" t="s">
+        <v>836</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="22"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="7" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="22"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="7" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="22"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="7" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="22"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="7" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="22"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="7" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="22"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="7" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="22"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="7" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="22"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="7" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="22"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="7" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="22" t="s">
-        <v>882</v>
+      <c r="A25" s="20" t="s">
+        <v>869</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="22"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="7" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="22"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="7" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="22"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="7" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="22"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="7" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="22"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="7" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="22"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="7" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="22" t="s">
-        <v>917</v>
+      <c r="A33" s="20" t="s">
+        <v>904</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="22"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="7" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="22"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="7" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="22"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="7" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="22"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="7" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="22"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="22"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="7" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="22"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="7" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="22"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="7" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="22"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="7" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="22" t="s">
-        <v>1000</v>
+      <c r="A44" s="20" t="s">
+        <v>987</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>929</v>
+        <v>916</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="22"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="7" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="22"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="7" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>938</v>
+        <v>925</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="22"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="7" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>946</v>
+        <v>933</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="22"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="7" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="22"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="7" t="s">
-        <v>951</v>
+        <v>938</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="22"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="7" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="22"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="7" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>241</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="22"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="7" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="22"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="7" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="22"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="7" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="22"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="7" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>241</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="22"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="7" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="22"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="7" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="22"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="7" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="22" t="s">
-        <v>1036</v>
+      <c r="A60" s="20" t="s">
+        <v>1023</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="22"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="7" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="22"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="7" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="22"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="7" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="22"/>
+      <c r="A64" s="20"/>
       <c r="B64" s="7" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="22"/>
+      <c r="A65" s="20"/>
       <c r="B65" s="7" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="22"/>
+      <c r="A66" s="20"/>
       <c r="B66" s="7" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="22"/>
+      <c r="A67" s="20"/>
       <c r="B67" s="7" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="22" t="s">
-        <v>1067</v>
+      <c r="A69" s="20" t="s">
+        <v>1054</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>85</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="22"/>
+      <c r="A70" s="20"/>
       <c r="B70" s="9" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>85</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="22"/>
+      <c r="A71" s="20"/>
       <c r="B71" s="9" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>85</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="22"/>
+      <c r="A72" s="20"/>
       <c r="B72" s="9" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>85</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="22"/>
+      <c r="A73" s="20"/>
       <c r="B73" s="9" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>40</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="22"/>
+      <c r="A74" s="20"/>
       <c r="B74" s="9" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>40</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="22"/>
+      <c r="A75" s="20"/>
       <c r="B75" s="9" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>85</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="22" t="s">
-        <v>1083</v>
+      <c r="A77" s="20" t="s">
+        <v>1070</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>40</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="22"/>
+      <c r="A78" s="20"/>
       <c r="B78" s="9" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>1076</v>
+        <v>1063</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>154</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="22"/>
+      <c r="A79" s="20"/>
       <c r="B79" s="9" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>1080</v>
+        <v>1067</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>1081</v>
+        <v>1068</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>154</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="5" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>1084</v>
+        <v>1071</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="F81" s="12" t="s">
         <v>85</v>
       </c>
       <c r="G81" s="11" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="20" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="22" t="s">
-        <v>1098</v>
-      </c>
       <c r="B83" s="7" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="22"/>
+      <c r="A84" s="20"/>
       <c r="B84" s="7" t="s">
-        <v>1092</v>
+        <v>1079</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>1096</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="22"/>
+      <c r="A85" s="20"/>
       <c r="B85" s="7" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>1097</v>
+        <v>1084</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>40</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
     </row>
   </sheetData>
@@ -16468,110 +16390,110 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>1099</v>
+      <c r="A2" s="20" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1086</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1100</v>
+        <v>1087</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1101</v>
+        <v>1088</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>1102</v>
+        <v>1089</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1104</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="22"/>
-      <c r="B3" s="16" t="s">
-        <v>1105</v>
+      <c r="A3" s="20"/>
+      <c r="B3" s="14" t="s">
+        <v>1092</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1106</v>
+        <v>1093</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1107</v>
+        <v>1094</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>1109</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="22"/>
-      <c r="B4" s="16" t="s">
-        <v>1110</v>
+      <c r="A4" s="20"/>
+      <c r="B4" s="14" t="s">
+        <v>1097</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>1111</v>
+        <v>1098</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1112</v>
+        <v>1099</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>1113</v>
+        <v>1100</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>1114</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="22"/>
-      <c r="B5" s="16" t="s">
-        <v>1115</v>
+      <c r="A5" s="20"/>
+      <c r="B5" s="14" t="s">
+        <v>1102</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1116</v>
+        <v>1103</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>1117</v>
+        <v>1104</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>1118</v>
+        <v>1105</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>1119</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="22"/>
-      <c r="B6" s="16" t="s">
-        <v>1120</v>
+      <c r="A6" s="20"/>
+      <c r="B6" s="14" t="s">
+        <v>1107</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>1122</v>
+        <v>1109</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1123</v>
+        <v>1110</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>1124</v>
+        <v>1111</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>1125</v>
+        <v>1112</v>
       </c>
     </row>
   </sheetData>
@@ -16601,388 +16523,388 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="16" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="16" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="16" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="16" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="16" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="16" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="16" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>1127</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="18" t="s">
+      <c r="C8" s="17" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="16" t="s">
         <v>1128</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>1129</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C9" s="17" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="16" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="16" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="16" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="16" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="16" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="16" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="16" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="18" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C3" s="19" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="16" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="18" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C4" s="19" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="16" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="18" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C5" s="19" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="16" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="18" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C6" s="19" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="16" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="18" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C7" s="19" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="16" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="18" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C8" s="19" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="16" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="18" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C9" s="19" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="16" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="18" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C10" s="19" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="16" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="18" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C11" s="19" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="16" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="18" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C12" s="19" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="18" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C13" s="19" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="16" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="18" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C14" s="19" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="16" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="18" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="18" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C16" s="19" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="16" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="16" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="18" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C17" s="19" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="16" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="18" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C18" s="19" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="16" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="18" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C19" s="19" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="16" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="18" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C20" s="19" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="16" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="18" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C21" s="19" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="16" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>1211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="18" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="18" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="18" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="18" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="18" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="18" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="18" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="18" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="18" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="18" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="18" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="18" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="18" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="18" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>1224</v>
       </c>
     </row>
   </sheetData>
